--- a/hospital_question-web/src/main/resources/file/export_temp.xlsx
+++ b/hospital_question-web/src/main/resources/file/export_temp.xlsx
@@ -12,15 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="数据统计" sheetId="1" r:id="rId1"/>
-    <sheet name="源数据" sheetId="2" r:id="rId2"/>
+    <sheet name="患者版" sheetId="1" r:id="rId1"/>
+    <sheet name="医生版" sheetId="3" r:id="rId2"/>
+    <sheet name="源数据" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="50">
   <si>
     <t>上海市第十人民医院问卷调结果查统计表</t>
   </si>
@@ -43,133 +44,136 @@
     <t>患者家属</t>
   </si>
   <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>年龄段</t>
+  </si>
+  <si>
+    <t>18岁以下</t>
+  </si>
+  <si>
+    <t>19到40</t>
+  </si>
+  <si>
+    <t>41到60</t>
+  </si>
+  <si>
+    <t>61岁以上</t>
+  </si>
+  <si>
+    <t>满意度调研结果</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>非常满意</t>
+  </si>
+  <si>
+    <t>较满意</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>不太满意</t>
+  </si>
+  <si>
+    <t>不满意</t>
+  </si>
+  <si>
+    <t>未接触</t>
+  </si>
+  <si>
+    <t>室内环境质量</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>室外环境质量</t>
+  </si>
+  <si>
+    <t>所属医院</t>
+  </si>
+  <si>
+    <t>厕所卫生状况</t>
+  </si>
+  <si>
+    <t>保洁服务态度</t>
+  </si>
+  <si>
+    <t>日常安保工作</t>
+  </si>
+  <si>
+    <t>意外处置及时性</t>
+  </si>
+  <si>
+    <t>安保服务态度</t>
+  </si>
+  <si>
+    <t>菜品价格</t>
+  </si>
+  <si>
+    <t>就餐环境</t>
+  </si>
+  <si>
+    <t>餐饮服务态度</t>
+  </si>
+  <si>
+    <t>送餐的及时性</t>
+  </si>
+  <si>
+    <t>餐品口味营养</t>
+  </si>
+  <si>
+    <t>送餐服务态度</t>
+  </si>
+  <si>
+    <t>运送及时性</t>
+  </si>
+  <si>
+    <t>运送准确性</t>
+  </si>
+  <si>
+    <t>运送服务态度</t>
+  </si>
+  <si>
+    <t>维修及时性</t>
+  </si>
+  <si>
+    <t>维修质量</t>
+  </si>
+  <si>
+    <t>电梯运状态</t>
+  </si>
+  <si>
+    <t>运维服务态度</t>
+  </si>
+  <si>
+    <t>总数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>医生</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>护士</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t>XX</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>年龄段</t>
-  </si>
-  <si>
-    <t>18岁以下</t>
-  </si>
-  <si>
-    <t>19到40</t>
-  </si>
-  <si>
-    <t>41到60</t>
-  </si>
-  <si>
-    <t>61岁以上</t>
-  </si>
-  <si>
-    <t>满意度调研结果</t>
-  </si>
-  <si>
-    <t>类别</t>
-  </si>
-  <si>
-    <t>非常满意</t>
-  </si>
-  <si>
-    <t>较满意</t>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>不太满意</t>
-  </si>
-  <si>
-    <t>不满意</t>
-  </si>
-  <si>
-    <t>未接触</t>
-  </si>
-  <si>
-    <t>室内环境质量</t>
-  </si>
-  <si>
-    <t>xx</t>
-  </si>
-  <si>
-    <t>室外环境质量</t>
-  </si>
-  <si>
-    <t>所属医院</t>
-  </si>
-  <si>
-    <t>厕所卫生状况</t>
-  </si>
-  <si>
-    <t>保洁服务态度</t>
-  </si>
-  <si>
-    <t>日常安保工作</t>
-  </si>
-  <si>
-    <t>意外处置及时性</t>
-  </si>
-  <si>
-    <t>安保服务态度</t>
-  </si>
-  <si>
-    <t>菜品价格</t>
-  </si>
-  <si>
-    <t>就餐环境</t>
-  </si>
-  <si>
-    <t>餐饮服务态度</t>
-  </si>
-  <si>
-    <t>送餐的及时性</t>
-  </si>
-  <si>
-    <t>餐品口味营养</t>
-  </si>
-  <si>
-    <t>送餐服务态度</t>
-  </si>
-  <si>
-    <t>运送及时性</t>
-  </si>
-  <si>
-    <t>运送准确性</t>
-  </si>
-  <si>
-    <t>运送服务态度</t>
-  </si>
-  <si>
-    <t>维修及时性</t>
-  </si>
-  <si>
-    <t>维修质量</t>
-  </si>
-  <si>
-    <t>电梯运状态</t>
-  </si>
-  <si>
-    <t>运维服务态度</t>
-  </si>
-  <si>
-    <t>总数</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,6 +417,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,7 +774,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -773,55 +783,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="25">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="26"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -830,45 +840,33 @@
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-      <c r="B6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -876,12 +874,12 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -889,349 +887,349 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
+      <c r="A11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="G12" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1254,6 +1252,491 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="23"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
@@ -1276,76 +1759,76 @@
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
